--- a/medicine/Enfance/Hervé_Gagnon/Hervé_Gagnon.xlsx
+++ b/medicine/Enfance/Hervé_Gagnon/Hervé_Gagnon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Herv%C3%A9_Gagnon</t>
+          <t>Hervé_Gagnon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hervé Gagnon, né le 26 août 1963 à La Baie au Québec, est un historien et romancier québécois[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hervé Gagnon, né le 26 août 1963 à La Baie au Québec, est un historien et romancier québécois.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Herv%C3%A9_Gagnon</t>
+          <t>Hervé_Gagnon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Détenteur d'une maîtrise et un doctorat en histoire, ainsi qu’une maîtrise en muséologie de l'Université de Montréal[2], il oeuvre pendant plus de 25 ans à la mise en valeur de la culture et du patrimoine[3]. Parallèlement, il enseigne dans plusieurs universités québécoises.
-Il délaisse l'enseignement et la muséologie en 2010 pour se consacrer entièrement à l'écriture de thrillers et de polars ésotériques ayant le plus souvent l'histoire en toile de fond. Ses titres sont publiés au Canada et en Europe[4] et ont été traduits en polonais[5] et en russe[6]. Sa série Damné s'est vendue à plus de 200 000 exemplaires en français seulement.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Détenteur d'une maîtrise et un doctorat en histoire, ainsi qu’une maîtrise en muséologie de l'Université de Montréal, il oeuvre pendant plus de 25 ans à la mise en valeur de la culture et du patrimoine. Parallèlement, il enseigne dans plusieurs universités québécoises.
+Il délaisse l'enseignement et la muséologie en 2010 pour se consacrer entièrement à l'écriture de thrillers et de polars ésotériques ayant le plus souvent l'histoire en toile de fond. Ses titres sont publiés au Canada et en Europe et ont été traduits en polonais et en russe. Sa série Damné s'est vendue à plus de 200 000 exemplaires en français seulement.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Herv%C3%A9_Gagnon</t>
+          <t>Hervé_Gagnon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,44 +559,425 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Romans
-Série Sanctuaire
-Arcadia, Éditions Hugo &amp; Cie, 2022
-Nova Ecclesia, Éditions Hugo &amp; Cie, 2023
-Série La Mort du Temple
-Secretum Templi, Éditions Hugo &amp; Cie, 2020Réédité en 2021 en format poche par le même éditeur dans sa collection Hugo Poche
-Corpus Christi, Éditions Hugo &amp; Cie, 2020Réédité en 2021 en format poche par le même éditeur dans sa collection Hugo Poche
-Série Vérité
-Les Sages de Sion, Éditions Hugo &amp; Cie, 2018Réédité en 2020 en format poche par le même éditeur dans sa collection Hugo Poche
-La Terre promise, Éditions Hugo &amp; Cie, 2019Réédité en 2020 en format poche par le même éditeur dans sa collection Hugo Poche
-Série Les enquêtes de Joseph Laflamme
-Jack, Éditions Libre Expression, collection Expression Noire, 2014Réédité en 2019 en format poche par l'éditeur 10/18, collection Grands détectives. Réédité en 2024 en format poche chez Hugo, collection Thriller.
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Sanctuaire</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Arcadia, Éditions Hugo &amp; Cie, 2022
+Nova Ecclesia, Éditions Hugo &amp; Cie, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hervé_Gagnon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Gagnon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série La Mort du Temple</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Secretum Templi, Éditions Hugo &amp; Cie, 2020Réédité en 2021 en format poche par le même éditeur dans sa collection Hugo Poche
+Corpus Christi, Éditions Hugo &amp; Cie, 2020Réédité en 2021 en format poche par le même éditeur dans sa collection Hugo Poche</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hervé_Gagnon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Gagnon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Vérité</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Sages de Sion, Éditions Hugo &amp; Cie, 2018Réédité en 2020 en format poche par le même éditeur dans sa collection Hugo Poche
+La Terre promise, Éditions Hugo &amp; Cie, 2019Réédité en 2020 en format poche par le même éditeur dans sa collection Hugo Poche</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hervé_Gagnon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Gagnon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Les enquêtes de Joseph Laflamme</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Jack, Éditions Libre Expression, collection Expression Noire, 2014Réédité en 2019 en format poche par l'éditeur 10/18, collection Grands détectives. Réédité en 2024 en format poche chez Hugo, collection Thriller.
 Jeremiah, Libre Expression, collection Expression Noire, 2015Réédité en 2019 en format poche par l'éditeur 10/18, collection Grands détectives.  Réédité en 2024 en format poche chez Hugo, collection Thriller.
 Maria, Libre Expression, collection Expression Noire, 2015Réédité en 2020 en format poche par l'éditeur 10/18, collection Grands détectives. Réédité en 2024 en format poche chez Hugo, collection Thriller.
 Benjamin, Libre Expression, collection Expression Noire, 2016Réédité en 2024 en format poche chez Hugo, collection Thriller.
 Joseph, Libre Expression, collection Expression Noire, 2016Réédité en 2024 en format poche chez Hugo, collection Thriller.
-Adolphus, Libre Expression, collection Expression Noire, 2018Réédité en 2024 en format poche chez Hugo, collection Thriller.
-Série Les enquêtes de Patrick Kelly
-Chemin de croix, Libre Expression, collection Expression Noire, 2017Réédité en 2024 chez Eaux Troubles.
-Série Malefica
-La Voie du Livre, Libre Expression, 2013Réédité en 2014 par Hugo &amp; Cie, en 2015 par Pocket et France Loisirs
+Adolphus, Libre Expression, collection Expression Noire, 2018Réédité en 2024 en format poche chez Hugo, collection Thriller.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hervé_Gagnon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Gagnon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Les enquêtes de Patrick Kelly</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Chemin de croix, Libre Expression, collection Expression Noire, 2017Réédité en 2024 chez Eaux Troubles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hervé_Gagnon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Gagnon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Malefica</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La Voie du Livre, Libre Expression, 2013Réédité en 2014 par Hugo &amp; Cie, en 2015 par Pocket et France Loisirs
 La Voie royale, Éditions Hurtubise, 2014Réédité en 2014 par Hugo &amp; Cie, en 2015 par Pocket et France Loisirs
-La Voie du sang, Libre Expression, 2014Réédité en 2014 par Hugo &amp; Cie, en 2015 par Pocket et France Loisirs
-Série Vengeance
-Le Glaive de Dieu, Éditions Hurtubise, 2013Réédité en 2013 par Québec Loisirs et France Loisirs. Traduit en russe (en Ouzbékistan) en 2021 sous le titre Oblozhka 1. Mech gospoda.  Réédité en 2024  chez Eaux Troubles.
-Le Grand Œuvre, Éditions Hurtubise, 2013Réédité en 2013 par Québec Loisirs et France Loisirs. Traduit en russe (en Ouzbékistan) en 2021 sous le titre Oblozhka 2. Réédité en 2024  chez Eaux Troubles.
-Série Damné
-L’Héritage des cathares, Éditions Hurtubise, 2010Édité en 2011 par France Loisirs, en 2012 par Hugo &amp; Cie, en 2013 par Pocket, en 2021 par Hugo Poche. Traduit en russe en 2021
+La Voie du sang, Libre Expression, 2014Réédité en 2014 par Hugo &amp; Cie, en 2015 par Pocket et France Loisirs</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hervé_Gagnon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Gagnon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Vengeance</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le Glaive de Dieu, Éditions Hurtubise, 2013Réédité en 2013 par Québec Loisirs et France Loisirs. Traduit en russe (en Ouzbékistan) en 2021 sous le titre Oblozhka 1. Mech gospoda.  Réédité en 2024  chez Eaux Troubles.
+Le Grand Œuvre, Éditions Hurtubise, 2013Réédité en 2013 par Québec Loisirs et France Loisirs. Traduit en russe (en Ouzbékistan) en 2021 sous le titre Oblozhka 2. Réédité en 2024  chez Eaux Troubles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hervé_Gagnon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Gagnon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Damné</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>L’Héritage des cathares, Éditions Hurtubise, 2010Édité en 2011 par France Loisirs, en 2012 par Hugo &amp; Cie, en 2013 par Pocket, en 2021 par Hugo Poche. Traduit en russe en 2021
 Le Fardeau de Lucifer, Éditions Hurtubise, 2010Édité en 2011 par France Loisirs, en 2013 par Hurtubise au format poche et Pocket, en 2021 par Hugo Poche. Traduit en russe en 2021
 L’Étoffe du Juste, Éditions Hurtubise, 2011Édité en 2011 par France Loisirs, en 2013 par Hugo &amp; Cie, en 2014 par Pocket, en 2021 par Hugo Poche. Traduit en russe en 2021
-Le Baptême de Judas, Éditions Hurtubise, 2011Édité en 2011 par France Loisirs, en 2013 par Hugo &amp; Cie et les éditions Hurtubise, en 2014 par Pocket, en 2021 par Hugo Poche. Traduit en russe en 2021
-Hors série
-Crossroads. La dernière chanson de Robert Johnson, Hugo &amp; Cie, 2021
-Nouvelles
-« Woke », Storia, Paris / Montréal, Hugo et Cie, 2021.
+Le Baptême de Judas, Éditions Hurtubise, 2011Édité en 2011 par France Loisirs, en 2013 par Hugo &amp; Cie et les éditions Hurtubise, en 2014 par Pocket, en 2021 par Hugo Poche. Traduit en russe en 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hervé_Gagnon</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Gagnon</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Hors série</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Crossroads. La dernière chanson de Robert Johnson, Hugo &amp; Cie, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hervé_Gagnon</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Gagnon</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Woke », Storia, Paris / Montréal, Hugo et Cie, 2021.
 « Veni Satanas », Crimes à la bibliothèque, Montréal, Druide, 2015.
-Romans jeunesse
-Série La Cage
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hervé_Gagnon</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Gagnon</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Série La Cage
 La Cage, Hugo &amp; Cie, 2022
 La Cage: L'Empoisonneuse, Hugo &amp; Cie, 2024
 Série Le Talisman de Nergal
@@ -608,9 +1003,43 @@
 Au royaume de Thinarath, Montréal, Hurtubise HMH, 2003.
 Le fantôme de Coteau-Boisé, Sherbrooke, GGC Éditions, 2000. / L’esprit des lieux, Gatineau, Vents d’Ouest, 2013.
 Gibus, maître du temps, Sherbrooke, GGC Éditions, 2000. / Continuum, Gatineau, Vents d’Ouest, 2014.
-L'étrange Monsieur Fernand, Sherbrooke, GGC Éditions, 2000.
-Monographies
-La franc-maçonnerie en 25 questions, Montréal, Les Heures bleues, 2020.
+L'étrange Monsieur Fernand, Sherbrooke, GGC Éditions, 2000.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hervé_Gagnon</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Gagnon</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Monographies</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La franc-maçonnerie en 25 questions, Montréal, Les Heures bleues, 2020.
 Soigner le corps et l'âme. Les Religieuses Hospitalières de Saint-Joseph et l'Hôtel-Dieu de Montréal (XVIIe – XXe siècles), Sherbrooke, GGC éditions, 2002.
 Louis-François-George Baby. Un bourgeois montréalais au XIXe siècle, Sherbrooke, GGC éditions, 2001.
 Divertir et instruire. Les musées de Montréal au XIXe siècle, Sherbrooke, GGC Éditions, 1999.
@@ -618,42 +1047,44 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Herv%C3%A9_Gagnon</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Gagnon</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Hervé_Gagnon</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Gagnon</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">·       Finaliste, Prix Jeunesse 2023,  Salon du Livre du Saguenay-Lac-Saint-Jean pour Solastalgie.
 ·       Finaliste, Prix Jeunesse 2020,  Salon du Livre du Saguenay-Lac-Saint-Jean pour Le Projet Pox.
-·       Prix Arthur-Ellis 2019, « Meilleur polar en français » au Canada pour Adolphus. Une enquête de Joseph Laflamme[7].
+·       Prix Arthur-Ellis 2019, « Meilleur polar en français » au Canada pour Adolphus. Une enquête de Joseph Laflamme.
 ·       Finaliste, Prix roman, Salon du livre du Saguenay-Lac-St-Jean 2019 pour Adolphus. Une enquête de Joseph Laflamme.
 ·       Finaliste, Prix roman, Salon du livre du Saguenay-Lac-St-Jean 2016  pour Maria. Une enquête de Joseph Laflamme.
-·       Finaliste, Prix Saint-Pacôme du roman policier 2015 pour Jeremiah. Une enquête de Joseph Laflamme[8].
+·       Finaliste, Prix Saint-Pacôme du roman policier 2015 pour Jeremiah. Une enquête de Joseph Laflamme.
 ·       Finaliste, Prix Tenebris 2015 pour Jack. Une enquête de Joseph Laflamme
 ·       Finaliste, Prix Suzanne-Pouliot et Antoine-Sirois 2015, Association des Auteures et Auteurs de l’Estrie pour Mille écus d'or.
 ·       Prix Jeunesse 2014,  Salon du Livre du Saguenay-Lac-Saint-Jean pour Mille écus d'or.
-·       Prix Saint-Pacôme du Premier polar 2014 pour Jack. Une enquête de Joseph Laflamme[9].
+·       Prix Saint-Pacôme du Premier polar 2014 pour Jack. Une enquête de Joseph Laflamme.
 ·       Finaliste, Prix Saint-Pacôme du roman policier 2014 pour Jack. Une enquête de Joseph Laflamme.
 ·       Finaliste, Prix des lecteurs 2011, Salon du Livre du Saguenay-Lac-Saint-Jean pour Damné: L'héritage des cathares.
 ·       Prix Jeunesse 2010,  Salon du Livre du Saguenay-Lac-Saint-Jean pour Le talisman de Nergal 6. La révélation du Centre.
@@ -668,64 +1099,68 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Herv%C3%A9_Gagnon</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Gagnon</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Hervé_Gagnon</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Gagnon</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Collaborations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'occasion de la parution de Crossroads, le guitariste de blues-rock canadien Steve Hill a fait paraître une version de Hellhound on my trail de Robert Johnson incluse par la suite sur l'album Desert Trip Deluxe.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Herv%C3%A9_Gagnon</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Gagnon</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hervé_Gagnon</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Gagnon</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Vie personnelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Habitant depuis 1995 dans la région des Cantons de l'Est, au Québec, il consacre ses temps libres à la musique[10], à la lecture, à l'ornithologie et à la cuisine. Amateur de blues depuis son adolescence, il voue une grande admiration au mythique guitariste Robert Johnson.
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Habitant depuis 1995 dans la région des Cantons de l'Est, au Québec, il consacre ses temps libres à la musique, à la lecture, à l'ornithologie et à la cuisine. Amateur de blues depuis son adolescence, il voue une grande admiration au mythique guitariste Robert Johnson.
 </t>
         </is>
       </c>
